--- a/PRACTICAS/PRACTICA_5/Punto23.xlsx
+++ b/PRACTICAS/PRACTICA_5/Punto23.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Agus\Escritorio\Facultad\2DO AÑO\2do_Semestre\ISO\PRACTICAS\PRACTICA_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4A7997-BFA4-4D46-8DF7-CE8F40F6C8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8275540-AAB1-43C9-8E84-AF14A1E6613F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{44A49E9E-7B89-4080-B341-6AC3BF248C90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="31">
   <si>
     <t>Marcos/Paginas</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B8 </t>
   </si>
   <si>
     <t>a) ii.</t>
@@ -527,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1B4709-AD60-4555-B491-FB44E1561534}">
   <dimension ref="A1:AF63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="AI60" sqref="AI60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AJ14" sqref="AJ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,64 +670,64 @@
         <v>2</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AF3" s="2"/>
     </row>
@@ -770,61 +767,61 @@
         <v>3</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF4" s="2"/>
     </row>
@@ -862,61 +859,61 @@
         <v>4</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF5" s="2"/>
     </row>
@@ -949,64 +946,64 @@
         <v>5</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AF6" s="2"/>
     </row>
@@ -1041,58 +1038,58 @@
         <v>6</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="AF7" s="2"/>
     </row>
@@ -1128,55 +1125,55 @@
         <v>7</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AF8" s="2"/>
     </row>
@@ -1213,52 +1210,52 @@
         <v>8</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AF9" s="2"/>
     </row>
@@ -1296,7 +1293,9 @@
       <c r="M10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="2"/>
+      <c r="N10" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="O10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1316,9 +1315,7 @@
         <v>25</v>
       </c>
       <c r="U10" s="2"/>
-      <c r="V10" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="V10" s="2"/>
       <c r="W10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1377,66 +1374,75 @@
         <v>8</v>
       </c>
       <c r="J12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="Q12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="U12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="X12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Y12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="AA12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AB12" s="1" t="s">
+      <c r="AD12" s="8" t="s">
         <v>18</v>
+      </c>
+      <c r="AE12" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
@@ -2243,7 +2249,7 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>2</v>
@@ -2335,7 +2341,7 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="5">
         <v>1</v>
@@ -2427,7 +2433,7 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
@@ -3301,11 +3307,11 @@
       <c r="H41" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I41" s="2"/>
+      <c r="I41" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="J41" s="2"/>
-      <c r="K41" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="K41" s="2"/>
       <c r="L41" s="2" t="s">
         <v>25</v>
       </c>
@@ -3331,7 +3337,9 @@
       <c r="T41" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U41" s="2"/>
+      <c r="U41" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="V41" s="2"/>
       <c r="W41" s="2" t="s">
         <v>25</v>
@@ -3351,7 +3359,7 @@
       </c>
       <c r="AE41" s="2"/>
       <c r="AF41" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
@@ -3553,7 +3561,7 @@
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.25">
@@ -4484,7 +4492,7 @@
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>2</v>
@@ -4564,7 +4572,7 @@
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B63" s="5">
         <v>1</v>
